--- a/xnxx.xlsx
+++ b/xnxx.xlsx
@@ -4,24 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17240" windowHeight="16860"/>
+    <workbookView windowWidth="23040" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
-  <si>
-    <t>Multiplex</t>
-  </si>
-  <si>
-    <t>Site code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
   <si>
     <t>Cinema</t>
   </si>
@@ -29,106 +36,109 @@
     <t>Screen</t>
   </si>
   <si>
-    <t>Format</t>
-  </si>
-  <si>
-    <t>BO</t>
-  </si>
-  <si>
-    <t>Admits</t>
-  </si>
-  <si>
     <t>Seat</t>
   </si>
   <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>General Region</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Type of region</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>RCM</t>
+  </si>
+  <si>
+    <t>RCM ID</t>
+  </si>
+  <si>
     <t>Date of showing</t>
   </si>
   <si>
     <t>Session</t>
   </si>
   <si>
+    <t>End Time</t>
+  </si>
+  <si>
     <t>Film</t>
   </si>
   <si>
-    <t>Time range</t>
-  </si>
-  <si>
-    <t>Session (Short)</t>
-  </si>
-  <si>
-    <t>Cinema Map</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>RCM</t>
-  </si>
-  <si>
-    <t>RCM ID</t>
-  </si>
-  <si>
-    <t>metiz</t>
-  </si>
-  <si>
-    <t>METIZ</t>
+    <t>August</t>
+  </si>
+  <si>
+    <t>Tier 1</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Ha Noi</t>
+  </si>
+  <si>
+    <t>North East</t>
+  </si>
+  <si>
+    <t>Region 1</t>
+  </si>
+  <si>
+    <t>Hoan Kiem</t>
+  </si>
+  <si>
+    <t>TRẦN HOÀNG BẢO</t>
   </si>
   <si>
     <t>Mai</t>
   </si>
   <si>
-    <t>Metiz</t>
+    <t>Baria</t>
   </si>
   <si>
     <t>Tier 2</t>
   </si>
   <si>
-    <t>Central</t>
-  </si>
-  <si>
-    <t>CENTRAL</t>
-  </si>
-  <si>
-    <t>Ha Noi</t>
-  </si>
-  <si>
-    <t>ĐẶNG THÀNH ĐẠT</t>
-  </si>
-  <si>
-    <t>vinhcine</t>
-  </si>
-  <si>
-    <t>VINH CINE</t>
-  </si>
-  <si>
-    <t>Phòng 03</t>
-  </si>
-  <si>
-    <t>Nghe An</t>
-  </si>
-  <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
     <t>Vung Tau</t>
   </si>
   <si>
+    <t>South East</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Ba Ria Vung Tau Province</t>
+  </si>
+  <si>
+    <t>NGUYỄN TRÍ TRUNG</t>
+  </si>
+  <si>
+    <t>Baria Binh Gia</t>
+  </si>
+  <si>
     <t>Ba Ria</t>
   </si>
   <si>
-    <t>Long Xuyen</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -164,6 +174,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -199,6 +215,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -234,6 +256,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -269,6 +297,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -304,6 +338,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -339,6 +379,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -374,6 +420,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -409,6 +461,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -444,6 +502,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -479,6 +543,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -514,6 +584,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -549,6 +625,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -584,6 +666,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">private </t>
     </r>
     <r>
@@ -621,14 +709,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,16 +738,23 @@
       <charset val="0"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="163"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="163"/>
     </font>
     <font>
       <u/>
@@ -670,6 +765,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -679,93 +852,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -777,16 +866,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,12 +888,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9.8"/>
       <color rgb="FFA9B7C6"/>
       <name val="Calibri"/>
@@ -827,7 +922,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,43 +937,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF5B9BD5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,19 +1087,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,121 +1117,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,17 +1186,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1118,15 +1234,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1142,13 +1249,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,17 +1273,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,152 +1288,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1335,67 +1442,70 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="35" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
     <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1590,7 +1700,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1599,7 +1709,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
       <tableStyleElement type="headerRow" dxfId="16"/>
       <tableStyleElement type="totalRow" dxfId="15"/>
       <tableStyleElement type="firstRowStripe" dxfId="14"/>
@@ -1878,20 +1988,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="9" max="9" width="15.1015625" customWidth="1"/>
-    <col min="10" max="10" width="12.890625"/>
-    <col min="13" max="13" width="12.890625"/>
+    <col min="9" max="9" width="15.1018518518519" customWidth="1"/>
+    <col min="10" max="10" width="12.8888888888889"/>
+    <col min="13" max="14" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1910,294 +2020,186 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="B2" s="7">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1058</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="12">
+        <v>11946</v>
+      </c>
+      <c r="M2" s="13">
+        <v>20240505</v>
+      </c>
+      <c r="N2" s="14">
+        <v>0.625</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="5">
+    <row r="3" spans="1:16">
+      <c r="A3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
-        <v>520000</v>
-      </c>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5">
-        <v>89</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="C3" s="9">
+        <v>290</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="15">
+        <v>11658</v>
+      </c>
+      <c r="M3" s="13">
         <v>20240505</v>
       </c>
-      <c r="J2" s="5">
+      <c r="N3" s="14">
         <v>0.625</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="5">
-        <v>15</v>
-      </c>
-      <c r="M2" s="5">
+      <c r="O3" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P3" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="7">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7">
+        <v>342</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="12">
+        <v>11658</v>
+      </c>
+      <c r="M4" s="13">
+        <v>20240505</v>
+      </c>
+      <c r="N4" s="14">
         <v>0.625</v>
       </c>
-      <c r="N2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="5" t="s">
+      <c r="O4" s="14">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="11">
-        <v>10992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7">
-        <v>58057</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>153</v>
-      </c>
-      <c r="I3" s="5">
-        <v>20240505</v>
-      </c>
-      <c r="J3" s="7">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="7">
-        <v>14</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3" s="11">
-        <v>10992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="5">
-        <v>58057</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>153</v>
-      </c>
-      <c r="I4" s="5">
-        <v>20240505</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="5">
-        <v>14</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="11">
-        <v>10992</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="7">
-        <v>58057</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>153</v>
-      </c>
-      <c r="I5" s="5">
-        <v>20240505</v>
-      </c>
-      <c r="J5" s="7">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="7">
-        <v>14</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" s="11">
-        <v>10992</v>
-      </c>
-    </row>
-    <row r="6" spans="18:18">
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="18:18">
-      <c r="R7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2214,79 +2216,79 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="23.0390625" customWidth="1"/>
+    <col min="2" max="2" width="23.037037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
